--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1903058.982797743</v>
+        <v>1906609.542585139</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256421</v>
+        <v>6239134.53325641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069176</v>
+        <v>840694.9721069182</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>211.0025011558363</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>52.82290122762556</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>121.4312762797103</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>399.3976635617693</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>11.97262119319231</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -989,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>41.03250833503009</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.342310594081</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>320.797539652425</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>33.23657099140099</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H12" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T12" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U12" t="n">
         <v>225.7906402288772</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13.0717651791321</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>37.81444023517862</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
@@ -1624,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.6178616169278</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H15" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T15" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U15" t="n">
         <v>225.7906402288772</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>80.15653200148863</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388263</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.57137291818073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T17" t="n">
         <v>204.3497241367009</v>
@@ -1940,10 +1940,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H18" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T18" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U18" t="n">
         <v>225.7906402288772</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>195.3120161086556</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>4.572083017991898</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T20" t="n">
         <v>204.3497241367009</v>
@@ -2177,10 +2177,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H21" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T21" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U21" t="n">
         <v>225.7906402288772</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2295,10 +2295,10 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>135.2009709794793</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>192.0458031737949</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,10 +2335,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H23" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T23" t="n">
         <v>204.3497241367009</v>
@@ -2414,10 +2414,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H24" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T24" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U24" t="n">
         <v>225.7906402288772</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>159.6461437356205</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>211.5875684767312</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T26" t="n">
         <v>204.3497241367009</v>
@@ -2651,10 +2651,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H27" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T27" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U27" t="n">
         <v>225.7906402288772</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>88.59542080775718</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>62.36850297087506</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T29" t="n">
         <v>204.3497241367009</v>
@@ -2888,10 +2888,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H30" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T30" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U30" t="n">
         <v>225.7906402288772</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>130.448205067321</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8475334252349</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H32" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T32" t="n">
         <v>204.3497241367009</v>
@@ -3125,10 +3125,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H33" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T33" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U33" t="n">
         <v>225.7906402288772</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>119.7401400319059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>16.86931745267193</v>
       </c>
       <c r="U34" t="n">
         <v>286.2142514133935</v>
@@ -3283,10 +3283,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T35" t="n">
         <v>204.3497241367009</v>
@@ -3362,10 +3362,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H36" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T36" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U36" t="n">
         <v>225.7906402288772</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>135.6724111212917</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>138.5286238680764</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
@@ -3599,10 +3599,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H39" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T39" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U39" t="n">
         <v>225.7906402288772</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>175.7490376846108</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>25.97575277212177</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3836,10 +3836,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H42" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T42" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U42" t="n">
         <v>225.7906402288772</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>29.8599062769821</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>130.448205067321</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,10 +3994,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T44" t="n">
         <v>204.3497241367009</v>
@@ -4073,10 +4073,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H45" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T45" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U45" t="n">
         <v>225.7906402288772</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388263</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S46" t="n">
         <v>190.5400452173542</v>
@@ -4191,10 +4191,10 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2142514133935</v>
+        <v>54.02174280300464</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.78788008190566</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4038777286581</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4038777286581</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>471.4038777286581</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>323.490784146265</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>176.6008366483547</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286581</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1241.158393318536</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2685.055534257422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.992646913851</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2001.223991643737</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1627.758233382657</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1627.758233382657</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785276</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>264.3897601982241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>95.38995993655647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>95.38995993655647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>498.5011805406801</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>87.51527575107252</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I11" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K11" t="n">
-        <v>790.1010928348236</v>
+        <v>765.1137348815557</v>
       </c>
       <c r="L11" t="n">
-        <v>1639.210958469817</v>
+        <v>1200.738998111602</v>
       </c>
       <c r="M11" t="n">
-        <v>2600.615835417405</v>
+        <v>2162.14387505919</v>
       </c>
       <c r="N11" t="n">
-        <v>3562.945250846045</v>
+        <v>3124.47329048783</v>
       </c>
       <c r="O11" t="n">
-        <v>4049.465812105077</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q11" t="n">
         <v>4667.940766252041</v>
@@ -5077,13 +5077,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5105,13 +5105,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E12" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G12" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H12" t="n">
         <v>106.3322115589798</v>
@@ -5120,25 +5120,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K12" t="n">
-        <v>414.286932541866</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740674</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106304</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921422</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.146616470411</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>255.8114199243957</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="C13" t="n">
-        <v>255.8114199243957</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D13" t="n">
-        <v>255.8114199243957</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E13" t="n">
-        <v>242.6076167131511</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F13" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H13" t="n">
         <v>95.71766921524075</v>
@@ -5199,52 +5199,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J13" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O13" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P13" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q13" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S13" t="n">
-        <v>1720.61395783393</v>
+        <v>1874.882245694712</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.656398353473</v>
+        <v>1652.924686214255</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.5510938955</v>
+        <v>1363.819381756282</v>
       </c>
       <c r="V13" t="n">
-        <v>954.8666056896133</v>
+        <v>1109.134893550395</v>
       </c>
       <c r="W13" t="n">
-        <v>665.4494356526527</v>
+        <v>819.7177235134344</v>
       </c>
       <c r="X13" t="n">
-        <v>437.4598847546354</v>
+        <v>591.7281726154171</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.4598847546354</v>
+        <v>591.7281726154171</v>
       </c>
     </row>
     <row r="14">
@@ -5263,37 +5263,37 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036601</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.159320515575</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.01769332701</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.642956557057</v>
+        <v>1935.127558962001</v>
       </c>
       <c r="M14" t="n">
-        <v>2038.029435346741</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N14" t="n">
-        <v>2867.37235030616</v>
+        <v>3185.953071395928</v>
       </c>
       <c r="O14" t="n">
-        <v>3730.88509101531</v>
+        <v>4049.465812105078</v>
       </c>
       <c r="P14" t="n">
         <v>4430.198854229707</v>
@@ -5342,13 +5342,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E15" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G15" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H15" t="n">
         <v>106.3322115589798</v>
@@ -5357,25 +5357,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K15" t="n">
-        <v>414.286932541866</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L15" t="n">
-        <v>769.6414721740674</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106304</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.615543921422</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.498588679581</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524075</v>
+        <v>345.6200460840453</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524075</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="H16" t="n">
-        <v>95.71766921524075</v>
+        <v>176.6838631561384</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J16" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O16" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P16" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q16" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163342</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682885</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224912</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190248</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="W16" t="n">
-        <v>573.6095969820642</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="X16" t="n">
-        <v>345.6200460840469</v>
+        <v>345.6200460840453</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.3661340454805</v>
+        <v>345.6200460840453</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K17" t="n">
-        <v>597.7080858612034</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M17" t="n">
-        <v>2408.222828443785</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N17" t="n">
-        <v>3370.552243872426</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.072805131458</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P17" t="n">
-        <v>4237.805847256087</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q17" t="n">
         <v>4667.940766252041</v>
@@ -5579,13 +5579,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E18" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F18" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G18" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H18" t="n">
         <v>106.3322115589798</v>
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1023.935571205723</v>
+        <v>341.001780409306</v>
       </c>
       <c r="C19" t="n">
-        <v>854.9993882778166</v>
+        <v>341.001780409306</v>
       </c>
       <c r="D19" t="n">
-        <v>704.8827488654808</v>
+        <v>341.001780409306</v>
       </c>
       <c r="E19" t="n">
-        <v>556.9696552830877</v>
+        <v>341.001780409306</v>
       </c>
       <c r="F19" t="n">
-        <v>410.0797077851773</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G19" t="n">
-        <v>242.3321821269216</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H19" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O19" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S19" t="n">
-        <v>1913.078649972672</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T19" t="n">
-        <v>1715.793785216454</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U19" t="n">
-        <v>1715.793785216454</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.793785216454</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.376615179493</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="X19" t="n">
-        <v>1426.376615179493</v>
+        <v>345.6200460840453</v>
       </c>
       <c r="Y19" t="n">
-        <v>1205.584036035963</v>
+        <v>341.001780409306</v>
       </c>
     </row>
     <row r="20">
@@ -5737,37 +5737,37 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K20" t="n">
-        <v>790.1010928348236</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L20" t="n">
-        <v>1639.210958469817</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M20" t="n">
-        <v>2600.615835417405</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N20" t="n">
-        <v>3562.945250846045</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O20" t="n">
-        <v>4049.465812105077</v>
+        <v>4049.465812105078</v>
       </c>
       <c r="P20" t="n">
         <v>4430.198854229707</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5816,13 +5816,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E21" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F21" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H21" t="n">
         <v>106.3322115589798</v>
@@ -5831,25 +5831,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5910,40 +5910,40 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N22" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O22" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P22" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S22" t="n">
-        <v>1628.774119163342</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T22" t="n">
-        <v>1406.816559682885</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V22" t="n">
         <v>1015.565434123989</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K23" t="n">
-        <v>1086.01769332701</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L23" t="n">
-        <v>1935.127558962003</v>
+        <v>1327.278034693954</v>
       </c>
       <c r="M23" t="n">
-        <v>2451.514037751687</v>
+        <v>2288.682911641542</v>
       </c>
       <c r="N23" t="n">
-        <v>2980.869998012463</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O23" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P23" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="24">
@@ -6053,13 +6053,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E24" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F24" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H24" t="n">
         <v>106.3322115589798</v>
@@ -6068,25 +6068,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q24" t="n">
         <v>2587.498588679581</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.71766921524075</v>
+        <v>559.1814586372216</v>
       </c>
       <c r="C25" t="n">
-        <v>95.71766921524075</v>
+        <v>390.2452757093147</v>
       </c>
       <c r="D25" t="n">
-        <v>95.71766921524075</v>
+        <v>390.2452757093147</v>
       </c>
       <c r="E25" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G25" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6147,52 +6147,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N25" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O25" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P25" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.61395783393</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.249922329876</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.565434123989</v>
+        <v>1243.971910147585</v>
       </c>
       <c r="W25" t="n">
-        <v>726.1482640870279</v>
+        <v>954.5547401106242</v>
       </c>
       <c r="X25" t="n">
-        <v>498.1587131890105</v>
+        <v>740.8299234674613</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.3661340454805</v>
+        <v>740.8299234674613</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6226,28 +6226,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935956</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7080858612034</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1033.333349091251</v>
+        <v>1935.127558962001</v>
       </c>
       <c r="M26" t="n">
-        <v>1994.738226038839</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N26" t="n">
-        <v>2957.067641467479</v>
+        <v>3413.843453180325</v>
       </c>
       <c r="O26" t="n">
-        <v>3820.580382176629</v>
+        <v>3900.364014439356</v>
       </c>
       <c r="P26" t="n">
-        <v>4220.007013476401</v>
+        <v>4281.097056563985</v>
       </c>
       <c r="Q26" t="n">
-        <v>4667.940766252041</v>
+        <v>4729.030809339625</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="27">
@@ -6290,13 +6290,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E27" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F27" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G27" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H27" t="n">
         <v>106.3322115589798</v>
@@ -6305,25 +6305,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O27" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q27" t="n">
         <v>2587.498588679581</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.7704915554834</v>
+        <v>966.5359477560527</v>
       </c>
       <c r="C28" t="n">
-        <v>245.8343086275765</v>
+        <v>797.5997648281458</v>
       </c>
       <c r="D28" t="n">
-        <v>95.71766921524075</v>
+        <v>647.48312541581</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>499.5700318334169</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G28" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H28" t="n">
         <v>95.71766921524075</v>
@@ -6384,52 +6384,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N28" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O28" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P28" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S28" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T28" t="n">
-        <v>1657.615469984561</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="U28" t="n">
-        <v>1368.510165526588</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="V28" t="n">
-        <v>1113.825677320701</v>
+        <v>1658.394161766783</v>
       </c>
       <c r="W28" t="n">
-        <v>824.4085072837405</v>
+        <v>1368.976991729822</v>
       </c>
       <c r="X28" t="n">
-        <v>596.4189563857232</v>
+        <v>1368.976991729822</v>
       </c>
       <c r="Y28" t="n">
-        <v>596.4189563857232</v>
+        <v>1148.184412586292</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K29" t="n">
-        <v>827.3874605416528</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L29" t="n">
-        <v>1676.497326176646</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M29" t="n">
-        <v>2192.88380496633</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N29" t="n">
-        <v>2722.239765227106</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O29" t="n">
-        <v>3585.752505936256</v>
+        <v>4049.465812105078</v>
       </c>
       <c r="P29" t="n">
-        <v>4285.066269150653</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6527,13 +6527,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E30" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F30" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G30" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H30" t="n">
         <v>106.3322115589798</v>
@@ -6542,25 +6542,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>510.047886738274</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N31" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P31" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q31" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.61395783393</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.656398353473</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>954.8666056896133</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4494356526527</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>665.4494356526527</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.047886738274</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K32" t="n">
-        <v>597.7080858612034</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L32" t="n">
-        <v>1446.817951496196</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M32" t="n">
-        <v>2408.222828443785</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N32" t="n">
-        <v>3370.552243872426</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.072805131458</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P32" t="n">
-        <v>4237.805847256087</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q32" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6764,13 +6764,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E33" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F33" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G33" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H33" t="n">
         <v>106.3322115589798</v>
@@ -6779,25 +6779,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O33" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.71766921524075</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C34" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D34" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E34" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F34" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G34" t="n">
         <v>95.71766921524075</v>
@@ -6858,52 +6858,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O34" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S34" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.656398353473</v>
+        <v>1896.038935374012</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.5510938955</v>
+        <v>1606.933630916038</v>
       </c>
       <c r="V34" t="n">
-        <v>954.8666056896133</v>
+        <v>1352.249142710151</v>
       </c>
       <c r="W34" t="n">
-        <v>665.4494356526527</v>
+        <v>1062.831972673191</v>
       </c>
       <c r="X34" t="n">
-        <v>437.4598847546354</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.6673056111053</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>440.1593205155742</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K35" t="n">
-        <v>1086.01769332701</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1935.127558962003</v>
+        <v>1935.127558962001</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.816728742196</v>
+        <v>2504.816728742197</v>
       </c>
       <c r="N35" t="n">
-        <v>3034.172689002972</v>
+        <v>3034.172689002973</v>
       </c>
       <c r="O35" t="n">
         <v>3520.693250262004</v>
@@ -7001,13 +7001,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E36" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F36" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G36" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H36" t="n">
         <v>106.3322115589798</v>
@@ -7016,25 +7016,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>856.1880455474677</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="C37" t="n">
-        <v>687.2518626195608</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="D37" t="n">
-        <v>537.1352232072251</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="E37" t="n">
-        <v>389.222129624832</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F37" t="n">
-        <v>242.3321821269216</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G37" t="n">
-        <v>242.3321821269216</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H37" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O37" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P37" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S37" t="n">
-        <v>1913.078649972672</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T37" t="n">
-        <v>1913.078649972672</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="U37" t="n">
-        <v>1913.078649972672</v>
+        <v>1339.668814705367</v>
       </c>
       <c r="V37" t="n">
-        <v>1776.035810456215</v>
+        <v>1084.98432649948</v>
       </c>
       <c r="W37" t="n">
-        <v>1486.618640419255</v>
+        <v>795.5671564625191</v>
       </c>
       <c r="X37" t="n">
-        <v>1258.629089521237</v>
+        <v>795.5671564625191</v>
       </c>
       <c r="Y37" t="n">
-        <v>1037.836510377707</v>
+        <v>655.6392535654721</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.01769332701</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1611.438070502394</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M38" t="n">
-        <v>2127.824549292078</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N38" t="n">
-        <v>2657.180509552854</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O38" t="n">
         <v>3520.693250262004</v>
@@ -7238,13 +7238,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E39" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F39" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H39" t="n">
         <v>106.3322115589798</v>
@@ -7253,25 +7253,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O39" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.5180172137391</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C40" t="n">
-        <v>413.5818342858322</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D40" t="n">
         <v>263.4651948734965</v>
@@ -7332,52 +7332,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O40" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P40" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S40" t="n">
-        <v>1643.714530812577</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T40" t="n">
-        <v>1643.714530812577</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U40" t="n">
-        <v>1354.609226354604</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V40" t="n">
-        <v>1099.924738148717</v>
+        <v>1183.312959782244</v>
       </c>
       <c r="W40" t="n">
-        <v>810.5075681117564</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X40" t="n">
-        <v>582.5180172137391</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y40" t="n">
-        <v>582.5180172137391</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K41" t="n">
-        <v>1086.01769332701</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1707.237177177603</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M41" t="n">
-        <v>2223.623655967287</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N41" t="n">
-        <v>3185.953071395928</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O41" t="n">
-        <v>4049.465812105077</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
         <v>4667.940766252041</v>
@@ -7475,13 +7475,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E42" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F42" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G42" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H42" t="n">
         <v>106.3322115589798</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111792</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433806</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>738.5463968580368</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C43" t="n">
-        <v>708.3848753661357</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D43" t="n">
-        <v>558.2682359537999</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E43" t="n">
-        <v>410.3551423714068</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
         <v>95.71766921524075</v>
@@ -7569,52 +7569,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N43" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O43" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P43" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S43" t="n">
-        <v>1913.078649972672</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T43" t="n">
-        <v>1913.078649972672</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U43" t="n">
-        <v>1913.078649972672</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V43" t="n">
-        <v>1658.394161766785</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W43" t="n">
-        <v>1368.976991729824</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X43" t="n">
-        <v>1140.987440831807</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y43" t="n">
-        <v>920.1948616882765</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K44" t="n">
-        <v>918.6120443066565</v>
+        <v>918.6120443066557</v>
       </c>
       <c r="L44" t="n">
-        <v>1611.438070502394</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M44" t="n">
-        <v>2127.824549292078</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N44" t="n">
-        <v>2657.180509552854</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O44" t="n">
         <v>3520.693250262004</v>
@@ -7712,13 +7712,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E45" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F45" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G45" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H45" t="n">
         <v>106.3322115589798</v>
@@ -7727,25 +7727,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K45" t="n">
-        <v>414.286932541866</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L45" t="n">
-        <v>769.6414721740674</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.680327106304</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.615543921422</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O45" t="n">
-        <v>2062.146616470411</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P45" t="n">
-        <v>2362.669871067692</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.8343086275765</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C46" t="n">
-        <v>245.8343086275765</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D46" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E46" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F46" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G46" t="n">
         <v>95.71766921524075</v>
@@ -7806,52 +7806,52 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239502</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N46" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O46" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P46" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q46" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302083</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1628.774119163342</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T46" t="n">
-        <v>1406.816559682885</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U46" t="n">
-        <v>1117.711255224912</v>
+        <v>1352.249142710151</v>
       </c>
       <c r="V46" t="n">
-        <v>863.0267670190248</v>
+        <v>1352.249142710151</v>
       </c>
       <c r="W46" t="n">
-        <v>573.6095969820642</v>
+        <v>1062.831972673191</v>
       </c>
       <c r="X46" t="n">
-        <v>345.6200460840469</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.8343086275765</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
   </sheetData>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>25.2397555083507</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,13 +8704,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>230.5859793989</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>74.60209794880114</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,19 +8932,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>303.0171259582249</v>
+        <v>207.1546195792608</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>74.60209794880114</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.336370680424</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>25.2397555083507</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>194.3363706804282</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>296.913823841116</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>53.84110201061492</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>18.8824133082245</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>4.009305643099246</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>231.9993683640903</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>194.3363706804282</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.336370680424</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>53.84110201061503</v>
+        <v>53.84110201061856</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>90.70213529832023</v>
+        <v>90.70213529832387</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>187.4689097177235</v>
+        <v>90.70213529832387</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>259.7987504703941</v>
+        <v>259.7987504703977</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>133.3621974674371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388263</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.7256049821756</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>17.52637029807195</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0132804339141</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>24.42596777699657</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>214.0125703341029</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>151.0132804339142</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>60.09184015003314</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388263</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>60.09184015003169</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>14.12208691230595</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>56.82562721517407</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388263</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>157.3694809147771</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388263</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>60.09184015003328</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.73711992685986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60.09184015003143</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388263</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>202.8686664329802</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>116.4652322025363</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>80.05602948401835</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S40" t="n">
-        <v>14.79100753274344</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>226.1618905517062</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>137.3869148216457</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388263</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003328</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>232.1925086103888</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>119.7967732701891</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879213.1819714694</v>
+        <v>879213.1819714695</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879213.1819714694</v>
+        <v>879213.1819714697</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879213.1819714694</v>
+        <v>879213.1819714695</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879213.1819714694</v>
+        <v>879213.1819714695</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879213.1819714694</v>
+        <v>879213.1819714695</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879213.1819714694</v>
+        <v>879213.1819714695</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879213.1819714694</v>
+        <v>879213.1819714695</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>535287.5577859854</v>
+        <v>535287.5577859858</v>
       </c>
       <c r="F2" t="n">
         <v>535287.5577859855</v>
       </c>
       <c r="G2" t="n">
-        <v>535287.5577859855</v>
+        <v>535287.5577859856</v>
       </c>
       <c r="H2" t="n">
         <v>535287.5577859855</v>
@@ -26337,25 +26337,25 @@
         <v>535287.5577859855</v>
       </c>
       <c r="J2" t="n">
-        <v>535287.5577859854</v>
+        <v>535287.5577859855</v>
       </c>
       <c r="K2" t="n">
-        <v>535287.5577859855</v>
+        <v>535287.5577859856</v>
       </c>
       <c r="L2" t="n">
-        <v>535287.5577859854</v>
+        <v>535287.5577859858</v>
       </c>
       <c r="M2" t="n">
-        <v>535287.5577859854</v>
+        <v>535287.5577859858</v>
       </c>
       <c r="N2" t="n">
         <v>535287.5577859856</v>
       </c>
       <c r="O2" t="n">
-        <v>535287.5577859855</v>
+        <v>535287.5577859856</v>
       </c>
       <c r="P2" t="n">
-        <v>535287.5577859854</v>
+        <v>535287.5577859856</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518302</v>
+        <v>708251.096751828</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694108</v>
+        <v>130130.2399694094</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503011</v>
       </c>
       <c r="F4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503012</v>
       </c>
       <c r="G4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503011</v>
       </c>
       <c r="H4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503012</v>
       </c>
       <c r="I4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503012</v>
       </c>
       <c r="J4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.0088550301</v>
       </c>
       <c r="K4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503012</v>
       </c>
       <c r="L4" t="n">
-        <v>27510.00885503003</v>
+        <v>27510.00885503012</v>
       </c>
       <c r="M4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503011</v>
       </c>
       <c r="N4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503011</v>
       </c>
       <c r="O4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503011</v>
       </c>
       <c r="P4" t="n">
-        <v>27510.00885503004</v>
+        <v>27510.00885503012</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.71339206918</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319688.2685472945</v>
+        <v>-319688.2685472947</v>
       </c>
       <c r="C6" t="n">
-        <v>270279.6106672499</v>
+        <v>270279.61066725</v>
       </c>
       <c r="D6" t="n">
-        <v>270279.6106672502</v>
+        <v>270279.6106672504</v>
       </c>
       <c r="E6" t="n">
-        <v>-297141.8403563665</v>
+        <v>-296511.3191272838</v>
       </c>
       <c r="F6" t="n">
-        <v>411109.2563954638</v>
+        <v>411739.777624544</v>
       </c>
       <c r="G6" t="n">
-        <v>411109.2563954638</v>
+        <v>411739.7776245441</v>
       </c>
       <c r="H6" t="n">
-        <v>411109.2563954638</v>
+        <v>411739.777624544</v>
       </c>
       <c r="I6" t="n">
-        <v>411109.2563954638</v>
+        <v>411739.777624544</v>
       </c>
       <c r="J6" t="n">
-        <v>234686.0372028708</v>
+        <v>235316.558431951</v>
       </c>
       <c r="K6" t="n">
-        <v>411109.2563954638</v>
+        <v>411739.7776245441</v>
       </c>
       <c r="L6" t="n">
-        <v>411109.2563954637</v>
+        <v>411739.7776245442</v>
       </c>
       <c r="M6" t="n">
-        <v>280979.016426053</v>
+        <v>281609.5376551348</v>
       </c>
       <c r="N6" t="n">
-        <v>411109.2563954639</v>
+        <v>411739.7776245441</v>
       </c>
       <c r="O6" t="n">
-        <v>411109.2563954638</v>
+        <v>411739.7776245441</v>
       </c>
       <c r="P6" t="n">
-        <v>411109.2563954637</v>
+        <v>411739.7776245441</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="H3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="I3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="J3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="K3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="L3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="N3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="O3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="P3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731075</v>
+        <v>687.4987572731065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359591</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359591</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359591</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>154.2703906151712</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>333.415037428428</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>45.87852597934061</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>7.478382179942116</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27672,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>239.251546315097</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>93.93311345730814</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>16.6927948640033</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>380.547599029394</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I11" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P11" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R11" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T11" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U11" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T12" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U12" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H13" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K13" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N13" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O13" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P13" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I14" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P14" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R14" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T14" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U14" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J15" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T15" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U15" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H16" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N16" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O16" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P16" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I17" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P17" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R17" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T17" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U17" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J18" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T18" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U18" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H19" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K19" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N19" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O19" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P19" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I20" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P20" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R20" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T20" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U20" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J21" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R21" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T21" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U21" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H22" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J22" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K22" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N22" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O22" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P22" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I23" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P23" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R23" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T23" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U23" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R24" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T24" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U24" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H25" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J25" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K25" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N25" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O25" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P25" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q25" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I26" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P26" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R26" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T26" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R27" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T27" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U27" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H28" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J28" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N28" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O28" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P28" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q28" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I29" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P29" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R29" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T29" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J30" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R30" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T30" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U30" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H31" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N31" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O31" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P31" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q31" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I32" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P32" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R32" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T32" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J33" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R33" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T33" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U33" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H34" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J34" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K34" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O34" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P34" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q34" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I35" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P35" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T35" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U35" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J36" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R36" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T36" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U36" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H37" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K37" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N37" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O37" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P37" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q37" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I38" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P38" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R38" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T38" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U38" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R39" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T39" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U39" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H40" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J40" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K40" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N40" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O40" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P40" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q40" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I41" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P41" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R41" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T41" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U41" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R42" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T42" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U42" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H43" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J43" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K43" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N43" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O43" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P43" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q43" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I44" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P44" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R44" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T44" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.12890388793781</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4753490690592</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453253</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R45" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T45" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U45" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H46" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769775</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J46" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K46" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N46" t="n">
-        <v>293.9545193597451</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O46" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P46" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q46" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532403</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K11" t="n">
-        <v>349.884902142298</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646394</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M11" t="n">
-        <v>971.1160373207962</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626588</v>
+        <v>722.0208897615581</v>
       </c>
       <c r="P11" t="n">
-        <v>384.5788304289185</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239251</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1609409763584</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N13" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532403</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K14" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L14" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279637</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N14" t="n">
-        <v>837.7201161206252</v>
+        <v>741.8576097416604</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254042</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004011</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.143345477105</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239251</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O15" t="n">
-        <v>477.1587368871733</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N16" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O16" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811665</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646394</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207962</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743845</v>
+        <v>625.4051254607232</v>
       </c>
       <c r="O17" t="n">
-        <v>491.4349103626588</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q17" t="n">
-        <v>434.479716157529</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511937</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N19" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O19" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K20" t="n">
-        <v>349.884902142298</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207962</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O20" t="n">
-        <v>491.4349103626588</v>
+        <v>685.7712810430863</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289185</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.143345477105</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511937</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N22" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O22" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P22" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K23" t="n">
-        <v>648.790559205112</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646394</v>
+        <v>736.9393422553044</v>
       </c>
       <c r="M23" t="n">
-        <v>521.6025038279637</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N23" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O23" t="n">
-        <v>545.2760123732737</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004011</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709663</v>
+        <v>306.7515102197706</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O25" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P25" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811665</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L26" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207962</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O26" t="n">
-        <v>872.2350916254042</v>
+        <v>491.4349103626581</v>
       </c>
       <c r="P26" t="n">
-        <v>403.461243737143</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585827</v>
+        <v>57.42692062869923</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511937</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N28" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O28" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P28" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K29" t="n">
-        <v>556.6445149980376</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M29" t="n">
-        <v>521.6025038279637</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O29" t="n">
-        <v>872.2350916254042</v>
+        <v>685.7712810430863</v>
       </c>
       <c r="P29" t="n">
-        <v>706.3775386004011</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q29" t="n">
-        <v>452.4583361370097</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560021</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511937</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N31" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O31" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P31" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K32" t="n">
-        <v>324.6451466339473</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M32" t="n">
-        <v>971.1160373207962</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O32" t="n">
-        <v>491.4349103626588</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289185</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q32" t="n">
-        <v>434.479716157529</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511937</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N34" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O34" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P34" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.5124954532403</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K35" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M35" t="n">
-        <v>575.4436058385787</v>
+        <v>575.4436058385816</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901624003</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O35" t="n">
-        <v>491.4349103626588</v>
+        <v>491.4349103626581</v>
       </c>
       <c r="P35" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511937</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P37" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.5124954532403</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K38" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L38" t="n">
-        <v>530.7276537125092</v>
+        <v>530.7276537125123</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279637</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7029901624003</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254042</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511937</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O40" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P40" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.5124954532403</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K41" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L41" t="n">
-        <v>627.4944281319125</v>
+        <v>530.7276537125123</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279637</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743845</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254042</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511937</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N43" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O43" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P43" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K44" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L44" t="n">
-        <v>699.824268884583</v>
+        <v>699.8242688845861</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279637</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N44" t="n">
-        <v>534.7029901624003</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254042</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585827</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239251</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709663</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264661</v>
+        <v>433.5460773752703</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.0997147594836</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806883</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N46" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O46" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P46" t="n">
-        <v>229.6061850928531</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
